--- a/data_processed/20250804/BTCUSDVOLSURFACE_REGULARIZED_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDVOLSURFACE_REGULARIZED_20250804.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18160,7 +18160,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18218,7 +18218,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -33707,7 +33707,7 @@
       </c>
       <c r="G1318" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -33736,7 +33736,7 @@
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34630,7 +34630,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -34684,7 +34684,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34996,7 +34996,7 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -35054,7 +35054,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35220,7 +35220,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -35249,7 +35249,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35332,7 +35332,7 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35448,7 +35448,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36039,7 +36039,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36292,7 +36292,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36379,7 +36379,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36408,7 +36408,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36549,7 +36549,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36607,7 +36607,7 @@
       </c>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37031,7 +37031,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37172,7 +37172,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37516,7 +37516,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -37545,7 +37545,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -38036,7 +38036,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38094,7 +38094,7 @@
       </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38239,7 +38239,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38268,7 +38268,7 @@
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38413,7 +38413,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41283,7 +41283,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41370,7 +41370,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41399,7 +41399,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41457,7 +41457,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41544,7 +41544,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41602,7 +41602,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41631,7 +41631,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41660,7 +41660,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41855,7 +41855,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41884,7 +41884,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44858,7 +44858,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44945,7 +44945,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45057,7 +45057,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45086,7 +45086,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45169,7 +45169,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -45860,7 +45860,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45889,7 +45889,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45947,7 +45947,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45976,7 +45976,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -46109,7 +46109,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250804/BTCUSDVOLSURFACE_REGULARIZED_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDVOLSURFACE_REGULARIZED_20250804.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18160,7 +18160,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18218,7 +18218,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -33707,7 +33707,7 @@
       </c>
       <c r="G1318" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -33736,7 +33736,7 @@
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34630,7 +34630,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -34684,7 +34684,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34996,7 +34996,7 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35054,7 +35054,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35220,7 +35220,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35249,7 +35249,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35332,7 +35332,7 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35448,7 +35448,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36039,7 +36039,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36292,7 +36292,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36379,7 +36379,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36408,7 +36408,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36549,7 +36549,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36607,7 +36607,7 @@
       </c>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37031,7 +37031,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37172,7 +37172,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37516,7 +37516,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -37545,7 +37545,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38036,7 +38036,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38094,7 +38094,7 @@
       </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38239,7 +38239,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38268,7 +38268,7 @@
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38413,7 +38413,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41283,7 +41283,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41370,7 +41370,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41399,7 +41399,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41457,7 +41457,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41544,7 +41544,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41602,7 +41602,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41631,7 +41631,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41660,7 +41660,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41855,7 +41855,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41884,7 +41884,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44858,7 +44858,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44945,7 +44945,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45057,7 +45057,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45086,7 +45086,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45169,7 +45169,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45860,7 +45860,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45889,7 +45889,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45947,7 +45947,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45976,7 +45976,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46109,7 +46109,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250804/BTCUSDVOLSURFACE_REGULARIZED_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDVOLSURFACE_REGULARIZED_20250804.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18218,7 +18218,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -33736,7 +33736,7 @@
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34630,7 +34630,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -34996,7 +34996,7 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35220,7 +35220,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35332,7 +35332,7 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36379,7 +36379,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36408,7 +36408,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36549,7 +36549,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36607,7 +36607,7 @@
       </c>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37031,7 +37031,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37516,7 +37516,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37545,7 +37545,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -38036,7 +38036,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38094,7 +38094,7 @@
       </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38239,7 +38239,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38268,7 +38268,7 @@
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38413,7 +38413,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41283,7 +41283,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41370,7 +41370,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41544,7 +41544,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41602,7 +41602,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41660,7 +41660,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41855,7 +41855,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41884,7 +41884,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44858,7 +44858,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44945,7 +44945,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45057,7 +45057,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45086,7 +45086,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45169,7 +45169,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -45860,7 +45860,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45889,7 +45889,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45947,7 +45947,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45976,7 +45976,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
